--- a/Shared/celltypes per dataset.xlsx
+++ b/Shared/celltypes per dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhroe\Desktop\Thesis\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhroe\Desktop\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF03CA7-B6E0-43BF-A3DC-01CA51DBAA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1A204-C2BA-44C9-8C28-03B672208B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Sorin</t>
   </si>
   <si>
-    <t>Bodenmiller</t>
-  </si>
-  <si>
     <t>Crick</t>
   </si>
   <si>
@@ -124,13 +121,112 @@
   </si>
   <si>
     <t>Fibroblasts</t>
+  </si>
+  <si>
+    <t>Collagen CAF</t>
+  </si>
+  <si>
+    <t>Hypoxic Caf</t>
+  </si>
+  <si>
+    <t>mCAF</t>
+  </si>
+  <si>
+    <t>SMA_CAF</t>
+  </si>
+  <si>
+    <t>tpCAF</t>
+  </si>
+  <si>
+    <t>iCAF</t>
+  </si>
+  <si>
+    <t>vCAF</t>
+  </si>
+  <si>
+    <t>dCAF</t>
+  </si>
+  <si>
+    <t>Hypoxic tpCaf</t>
+  </si>
+  <si>
+    <t>IDO CAF/ifnCAF</t>
+  </si>
+  <si>
+    <t>PDPN CAF</t>
+  </si>
+  <si>
+    <t>HEV</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Lymphatic</t>
+  </si>
+  <si>
+    <t>Myeloid</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>Bodenmiller data</t>
+  </si>
+  <si>
+    <t>CD8 Ki67</t>
+  </si>
+  <si>
+    <t>CD4 Ki67</t>
+  </si>
+  <si>
+    <t>IDO CD4</t>
+  </si>
+  <si>
+    <t>TCF1/7 CD4</t>
+  </si>
+  <si>
+    <t>IDO CD8</t>
+  </si>
+  <si>
+    <t>CD4 Treg</t>
+  </si>
+  <si>
+    <t>TCF1/ 7CD</t>
+  </si>
+  <si>
+    <t>PD1 CD4</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypoxic </t>
+  </si>
+  <si>
+    <t>other/Other</t>
+  </si>
+  <si>
+    <t>Bodenmiller reclustered</t>
+  </si>
+  <si>
+    <t>CAF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +238,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,9 +283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,55 +304,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152762</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F897A21E-9B3B-15B3-6A68-4BBD9EB5201B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2407920" y="182880"/>
-          <a:ext cx="990600" cy="4176122"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,157 +580,319 @@
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>28</v>
+      <c r="B26" t="s">
+        <v>54</v>
       </c>
       <c r="C26">
         <v>13</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>